--- a/util/AI-RiskAssessmentTool.xlsx
+++ b/util/AI-RiskAssessmentTool.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyajima\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jyajima\Desktop\securityguideline\util\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9197DE98-D54B-48CA-AF3C-138F2D233721}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B705D9C5-5162-42DE-BB80-A7D56BFCDCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="-16200" windowWidth="29100" windowHeight="14865" xr2:uid="{7FFC3D60-456E-4EF0-A58D-4DA55A3AFCD4}"/>
+    <workbookView xWindow="540" yWindow="2340" windowWidth="28260" windowHeight="10920" xr2:uid="{7FFC3D60-456E-4EF0-A58D-4DA55A3AFCD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ⅰ. AIの定義" sheetId="10" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="516">
   <si>
     <t>本分析の利用方法</t>
     <rPh sb="0" eb="1">
@@ -6208,10 +6208,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Copyright ©2023 富士通株式会社</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>攻撃シナリオI3の
 攻撃可否</t>
     <rPh sb="0" eb="2">
@@ -6244,6 +6240,10 @@
   </si>
   <si>
     <t>I3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Copyright ©2023-2025 富士通株式会社</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -7172,8 +7172,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -7181,29 +7199,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7223,17 +7223,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7257,2169 +7257,504 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="677">
+  <dxfs count="171">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor theme="8"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10189,7 +8524,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
@@ -10297,1943 +8632,6 @@
       <fill>
         <patternFill>
           <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -34274,9 +30672,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 テーマ">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -34314,7 +30712,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -34420,7 +30818,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -34562,7 +30960,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -34586,7 +30984,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.4">
@@ -34826,6 +31224,9 @@
       <c r="I1" t="s">
         <v>391</v>
       </c>
+      <c r="M1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" t="str">
@@ -36101,6 +32502,12 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F38:G39"/>
+    <mergeCell ref="H38:H39"/>
     <mergeCell ref="F107:G108"/>
     <mergeCell ref="H107:H108"/>
     <mergeCell ref="F124:G125"/>
@@ -36111,12 +32518,6 @@
     <mergeCell ref="H74:H75"/>
     <mergeCell ref="F90:G91"/>
     <mergeCell ref="H90:H91"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="F22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F38:G39"/>
-    <mergeCell ref="H38:H39"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36127,7 +32528,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCD9C5DD-27D5-43CC-B03F-1770E07F8AF5}">
-  <dimension ref="A2:J55"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -36139,6 +32540,11 @@
     <col min="10" max="10" width="24.25" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>515</v>
+      </c>
+    </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B2" s="33" t="s">
         <v>33</v>
@@ -36811,7 +33217,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79664C2F-71DD-4439-8626-8322FEA45395}">
-  <dimension ref="A2:G62"/>
+  <dimension ref="A1:G62"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -36825,6 +33231,11 @@
     <col min="7" max="7" width="62.625" style="34" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="E1" t="s">
+        <v>515</v>
+      </c>
+    </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B2" s="48" t="s">
         <v>33</v>
@@ -36909,7 +33320,7 @@
       <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:7" ht="150" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="130" t="s">
+      <c r="B8" s="127" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="57" t="s">
@@ -36929,7 +33340,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="131"/>
+      <c r="B9" s="132"/>
       <c r="C9" s="98" t="s">
         <v>134</v>
       </c>
@@ -36947,7 +33358,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="132"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="61" t="s">
         <v>128</v>
       </c>
@@ -36965,7 +33376,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="150" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="132"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="97" t="s">
         <v>434</v>
       </c>
@@ -36983,30 +33394,30 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="150" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="132"/>
-      <c r="C12" s="134" t="s">
+      <c r="B12" s="133"/>
+      <c r="C12" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="129" t="s">
+      <c r="D12" s="135" t="s">
         <v>430</v>
       </c>
-      <c r="E12" s="127" t="s">
+      <c r="E12" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="127" t="s">
+      <c r="F12" s="129" t="s">
         <v>130</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="135" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="10.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="133"/>
+      <c r="B13" s="128"/>
       <c r="C13" s="123"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
+      <c r="D13" s="134"/>
+      <c r="E13" s="134"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="134"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B14" s="63"/>
@@ -37021,7 +33432,7 @@
       <c r="E15" s="65"/>
     </row>
     <row r="16" spans="1:7" ht="80.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="130" t="s">
+      <c r="B16" s="127" t="s">
         <v>131</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -37041,33 +33452,33 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="40.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="131"/>
-      <c r="C17" s="134" t="s">
+      <c r="B17" s="132"/>
+      <c r="C17" s="136" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="127" t="s">
+      <c r="D17" s="129" t="s">
         <v>438</v>
       </c>
-      <c r="E17" s="127" t="s">
+      <c r="E17" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="F17" s="127" t="s">
+      <c r="F17" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="G17" s="127" t="s">
+      <c r="G17" s="129" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="132"/>
-      <c r="C18" s="135"/>
-      <c r="D18" s="136"/>
-      <c r="E18" s="136"/>
-      <c r="F18" s="136"/>
-      <c r="G18" s="136"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="137"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
     </row>
     <row r="19" spans="1:7" ht="132.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="132"/>
+      <c r="B19" s="133"/>
       <c r="C19" s="61" t="s">
         <v>128</v>
       </c>
@@ -37085,7 +33496,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="170.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="132"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="98" t="s">
         <v>132</v>
       </c>
@@ -37103,7 +33514,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="133"/>
+      <c r="B21" s="128"/>
       <c r="C21" s="95" t="s">
         <v>447</v>
       </c>
@@ -37132,7 +33543,7 @@
       <c r="E23" s="65"/>
     </row>
     <row r="24" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="137" t="s">
+      <c r="B24" s="131" t="s">
         <v>62</v>
       </c>
       <c r="C24" s="57" t="s">
@@ -37152,7 +33563,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="133"/>
+      <c r="B25" s="128"/>
       <c r="C25" s="61" t="s">
         <v>137</v>
       </c>
@@ -37206,7 +33617,7 @@
       <c r="G28" s="60"/>
     </row>
     <row r="29" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="137" t="s">
+      <c r="B29" s="131" t="s">
         <v>70</v>
       </c>
       <c r="C29" s="57" t="s">
@@ -37226,7 +33637,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="133"/>
+      <c r="B30" s="128"/>
       <c r="C30" s="61" t="s">
         <v>147</v>
       </c>
@@ -37244,7 +33655,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="137" t="s">
+      <c r="B31" s="131" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="57" t="s">
@@ -37264,7 +33675,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="133"/>
+      <c r="B32" s="128"/>
       <c r="C32" s="57" t="s">
         <v>153</v>
       </c>
@@ -37282,7 +33693,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="57.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="130" t="s">
+      <c r="B33" s="127" t="s">
         <v>155</v>
       </c>
       <c r="C33" s="98" t="s">
@@ -37302,7 +33713,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="39" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="132"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="61" t="s">
         <v>158</v>
       </c>
@@ -37403,7 +33814,7 @@
       <c r="E41" s="65"/>
     </row>
     <row r="42" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="137" t="s">
+      <c r="B42" s="131" t="s">
         <v>94</v>
       </c>
       <c r="C42" s="57" t="s">
@@ -37423,7 +33834,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="133"/>
+      <c r="B43" s="128"/>
       <c r="C43" s="61" t="s">
         <v>166</v>
       </c>
@@ -37441,7 +33852,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="137" t="s">
+      <c r="B44" s="131" t="s">
         <v>97</v>
       </c>
       <c r="C44" s="57" t="s">
@@ -37461,7 +33872,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="133"/>
+      <c r="B45" s="128"/>
       <c r="C45" s="61" t="s">
         <v>166</v>
       </c>
@@ -37511,7 +33922,7 @@
       <c r="G48" s="60"/>
     </row>
     <row r="49" spans="1:7" ht="38.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="130" t="s">
+      <c r="B49" s="127" t="s">
         <v>173</v>
       </c>
       <c r="C49" s="57" t="s">
@@ -37531,7 +33942,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" ht="38.25" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B50" s="133"/>
+      <c r="B50" s="128"/>
       <c r="C50" s="95" t="s">
         <v>174</v>
       </c>
@@ -37603,6 +34014,13 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B8:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
     <mergeCell ref="B49:B50"/>
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="E17:E18"/>
@@ -37615,13 +34033,6 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="B44:B45"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B8:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -37647,7 +34058,11 @@
     <col min="32" max="32" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="1" spans="2:39" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K1" t="s">
+        <v>515</v>
+      </c>
+    </row>
     <row r="2" spans="2:39" ht="24" x14ac:dyDescent="0.4">
       <c r="B2" s="84" t="s">
         <v>175</v>
@@ -38638,7 +35053,7 @@
       <c r="G25" s="7"/>
       <c r="H25" s="8"/>
       <c r="N25" s="3" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O25" s="3" t="str">
         <f>モデルインバージョン攻撃!D2</f>
@@ -39459,7 +35874,7 @@
         <v>攻撃困難</v>
       </c>
       <c r="K51" s="115" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L51" s="3" t="str">
         <f>モデルインバージョン攻撃!D2</f>
@@ -39805,778 +36220,597 @@
     <mergeCell ref="H32:H33"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="expression" dxfId="170" priority="80">
+      <formula>$C$4="攻撃困難"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="169" priority="85">
+      <formula>$C$4="攻撃可能"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="168" priority="79">
+      <formula>$D$4="攻撃困難"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="167" priority="82">
+      <formula>$D$4="攻撃可能"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="166" priority="78">
+      <formula>$E$4="攻撃可能"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="165" priority="83">
+      <formula>$E$4="攻撃困難"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="164" priority="77">
+      <formula>$F$4="攻撃可能"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="163" priority="81">
+      <formula>$F$4="攻撃困難"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="162" priority="76">
+      <formula>$G$4="攻撃困難"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="161" priority="84">
+      <formula>$G$4="攻撃可能"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:O34">
+    <cfRule type="cellIs" dxfId="160" priority="6" operator="equal">
+      <formula>"攻撃可能"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="7" operator="equal">
+      <formula>"攻撃困難"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="P12">
-    <cfRule type="expression" dxfId="625" priority="525">
+    <cfRule type="expression" dxfId="158" priority="525">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="U12">
-    <cfRule type="expression" dxfId="624" priority="527">
+  <conditionalFormatting sqref="P14">
+    <cfRule type="expression" dxfId="157" priority="568">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q8">
+    <cfRule type="expression" dxfId="156" priority="584">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q9">
+    <cfRule type="expression" dxfId="155" priority="589">
+      <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q10">
+    <cfRule type="expression" dxfId="154" priority="591">
+      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q28:Q29">
+    <cfRule type="expression" dxfId="153" priority="27">
+      <formula>AND(Q28="TRUE",V28="TRUE",AL28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q29:Q30">
+    <cfRule type="expression" dxfId="152" priority="21">
+      <formula>AND(Q29="TRUE",U29="TRUE",AC29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q31:Q32">
+    <cfRule type="expression" dxfId="151" priority="31">
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AJ31="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q32:Q33">
+    <cfRule type="expression" dxfId="150" priority="35">
+      <formula>AND(Q32="TRUE",U32="TRUE",(OR(W32="TRUE",Y32="TRUE")),AC32="TRUE",AI32="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
+    <cfRule type="expression" dxfId="149" priority="142">
+      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R12">
+    <cfRule type="expression" dxfId="148" priority="124">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="R19">
+    <cfRule type="expression" dxfId="147" priority="580">
+      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="expression" dxfId="146" priority="618">
+      <formula>AND(OR(AND(R24="TRUE",U24="TRUE",AF24="TRUE"),AG24="TRUE"),OR(Z24="TRUE",AI24="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R30:R31">
+    <cfRule type="expression" dxfId="145" priority="16">
+      <formula>AND(R30="TRUE",V30="TRUE",OR(W30="TRUE",Y30="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S17">
+    <cfRule type="expression" dxfId="144" priority="385">
+      <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S18">
+    <cfRule type="expression" dxfId="143" priority="571">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S23">
+    <cfRule type="expression" dxfId="142" priority="614">
+      <formula>AND(OR(AND(S23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S27">
+    <cfRule type="expression" dxfId="141" priority="43">
+      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T16">
+    <cfRule type="expression" dxfId="140" priority="384">
+      <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T20">
+    <cfRule type="expression" dxfId="139" priority="572">
+      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T27:T28">
+    <cfRule type="expression" dxfId="138" priority="26">
+      <formula>AND(T27="TRUE",V27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U7">
+    <cfRule type="expression" dxfId="137" priority="141">
+      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U8">
+    <cfRule type="expression" dxfId="136" priority="585">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U9">
+    <cfRule type="expression" dxfId="135" priority="590">
+      <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U10">
+    <cfRule type="expression" dxfId="134" priority="592">
+      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U12">
+    <cfRule type="expression" dxfId="133" priority="527">
+      <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U14">
+    <cfRule type="expression" dxfId="132" priority="569">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="U16">
-    <cfRule type="expression" dxfId="623" priority="533">
+    <cfRule type="expression" dxfId="131" priority="533">
       <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U17">
-    <cfRule type="expression" dxfId="622" priority="536">
+    <cfRule type="expression" dxfId="130" priority="536">
       <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S17">
-    <cfRule type="expression" dxfId="621" priority="385">
+  <conditionalFormatting sqref="U18">
+    <cfRule type="expression" dxfId="129" priority="566">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U19">
+    <cfRule type="expression" dxfId="128" priority="567">
+      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U20">
+    <cfRule type="expression" dxfId="127" priority="570">
+      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23">
+    <cfRule type="expression" dxfId="126" priority="573">
+      <formula>AND(OR(AND(S23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U24">
+    <cfRule type="expression" dxfId="125" priority="615">
+      <formula>AND(OR(AND(R24="TRUE",U24="TRUE",AF24="TRUE"),AG24="TRUE"),OR(Z24="TRUE",AI24="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U29:U30">
+    <cfRule type="expression" dxfId="124" priority="20">
+      <formula>AND(Q29="TRUE",U29="TRUE",AC29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U31:U32">
+    <cfRule type="expression" dxfId="123" priority="32">
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AJ31="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U32:U33">
+    <cfRule type="expression" dxfId="122" priority="36">
+      <formula>AND(Q32="TRUE",U32="TRUE",(OR(W32="TRUE",Y32="TRUE")),AC32="TRUE",AI32="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V27">
+    <cfRule type="expression" dxfId="121" priority="44">
+      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V27:V28">
+    <cfRule type="expression" dxfId="120" priority="25">
+      <formula>AND(T27="TRUE",V27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V28:V29">
+    <cfRule type="expression" dxfId="119" priority="28">
+      <formula>AND(Q28="TRUE",V28="TRUE",AL28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V30:V31">
+    <cfRule type="expression" dxfId="118" priority="15">
+      <formula>AND(R30="TRUE",V30="TRUE",OR(W30="TRUE",Y30="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W16">
+    <cfRule type="expression" dxfId="117" priority="170">
+      <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W18">
+    <cfRule type="expression" dxfId="116" priority="577">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W19">
+    <cfRule type="expression" dxfId="115" priority="579">
+      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W20">
+    <cfRule type="expression" dxfId="114" priority="581">
+      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W27">
+    <cfRule type="expression" dxfId="113" priority="45">
+      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W27:W28">
+    <cfRule type="expression" dxfId="112" priority="24">
+      <formula>AND(T27="TRUE",V27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W28:W29">
+    <cfRule type="expression" dxfId="111" priority="29">
+      <formula>AND(Q28="TRUE",V28="TRUE",AL28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W29:W30">
+    <cfRule type="expression" dxfId="110" priority="19">
+      <formula>AND(Q29="TRUE",U29="TRUE",AC29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W30:W31">
+    <cfRule type="expression" dxfId="109" priority="14">
+      <formula>AND(R30="TRUE",V30="TRUE",OR(W30="TRUE",Y30="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W31:W32">
+    <cfRule type="expression" dxfId="108" priority="33">
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AJ31="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W32:W33">
+    <cfRule type="expression" dxfId="107" priority="37">
+      <formula>AND(Q32="TRUE",U32="TRUE",(OR(W32="TRUE",Y32="TRUE")),AC32="TRUE",AI32="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X27">
+    <cfRule type="expression" dxfId="106" priority="46">
+      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7">
+    <cfRule type="expression" dxfId="105" priority="140">
+      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12">
+    <cfRule type="expression" dxfId="104" priority="176">
+      <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="expression" dxfId="103" priority="574">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y27">
+    <cfRule type="expression" dxfId="102" priority="8">
+      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y27:Y28">
+    <cfRule type="expression" dxfId="101" priority="23">
+      <formula>AND(T27="TRUE",V27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y28:Y29">
+    <cfRule type="expression" dxfId="100" priority="30">
+      <formula>AND(Q28="TRUE",V28="TRUE",AL28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y29:Y30">
+    <cfRule type="expression" dxfId="99" priority="18">
+      <formula>AND(Q29="TRUE",U29="TRUE",AC29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y30:Y31">
+    <cfRule type="expression" dxfId="98" priority="13">
+      <formula>AND(R30="TRUE",V30="TRUE",OR(W30="TRUE",Y30="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y31:Y32">
+    <cfRule type="expression" dxfId="97" priority="34">
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AJ31="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y32:Y33">
+    <cfRule type="expression" dxfId="96" priority="38">
+      <formula>AND(Q32="TRUE",U32="TRUE",(OR(W32="TRUE",Y32="TRUE")),AC32="TRUE",AI32="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z8">
+    <cfRule type="expression" dxfId="95" priority="586">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z18">
+    <cfRule type="expression" dxfId="94" priority="578">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z23">
+    <cfRule type="expression" dxfId="93" priority="583">
+      <formula>AND(OR(AND(S23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z24">
+    <cfRule type="expression" dxfId="92" priority="617">
+      <formula>AND(OR(AND(R24="TRUE",U24="TRUE",AF24="TRUE"),AG24="TRUE"),OR(Z24="TRUE",AI24="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA27">
+    <cfRule type="expression" dxfId="91" priority="47">
+      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB17">
+    <cfRule type="expression" dxfId="90" priority="169">
       <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T16">
-    <cfRule type="expression" dxfId="620" priority="384">
-      <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
+  <conditionalFormatting sqref="AB25">
+    <cfRule type="expression" dxfId="89" priority="1">
+      <formula>(AB25="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB33:AB34">
+    <cfRule type="expression" dxfId="88" priority="48">
+      <formula>(AB33="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC29:AC30">
+    <cfRule type="expression" dxfId="87" priority="17">
+      <formula>AND(Q29="TRUE",U29="TRUE",AC29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC32:AC33">
+    <cfRule type="expression" dxfId="86" priority="39">
+      <formula>AND(Q32="TRUE",U32="TRUE",(OR(W32="TRUE",Y32="TRUE")),AC32="TRUE",AI32="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD13">
+    <cfRule type="expression" dxfId="85" priority="174">
+      <formula>(AD13="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE8">
+    <cfRule type="expression" dxfId="84" priority="587">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AE8="TRUE",Z8="TRUE",#REF!="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE31:AE32">
+    <cfRule type="expression" dxfId="83" priority="40">
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AJ31="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF8">
+    <cfRule type="expression" dxfId="82" priority="612">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF24">
+    <cfRule type="expression" dxfId="81" priority="619">
+      <formula>AND(OR(AND(R24="TRUE",U24="TRUE",AF24="TRUE"),AG24="TRUE"),OR(Z24="TRUE",AI24="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG7">
+    <cfRule type="expression" dxfId="80" priority="139">
+      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="expression" dxfId="79" priority="588">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="expression" dxfId="78" priority="593">
+      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG12">
-    <cfRule type="expression" dxfId="619" priority="177">
+    <cfRule type="expression" dxfId="77" priority="177">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Y12">
-    <cfRule type="expression" dxfId="618" priority="176">
+  <conditionalFormatting sqref="AG21">
+    <cfRule type="expression" dxfId="76" priority="160">
+      <formula>(AG21="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG23">
+    <cfRule type="expression" dxfId="75" priority="582">
+      <formula>AND(OR(AND(S23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG24">
+    <cfRule type="expression" dxfId="74" priority="616">
+      <formula>AND(OR(AND(R24="TRUE",U24="TRUE",AF24="TRUE"),AG24="TRUE"),OR(Z24="TRUE",AI24="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH7">
+    <cfRule type="expression" dxfId="73" priority="138">
+      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH12">
+    <cfRule type="expression" dxfId="72" priority="175">
       <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH12">
-    <cfRule type="expression" dxfId="617" priority="175">
-      <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
+  <conditionalFormatting sqref="AH14">
+    <cfRule type="expression" dxfId="71" priority="575">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AD13">
-    <cfRule type="expression" dxfId="616" priority="174">
-      <formula>(AD13="TRUE")</formula>
+  <conditionalFormatting sqref="AI8">
+    <cfRule type="expression" dxfId="70" priority="68">
+      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="W16">
-    <cfRule type="expression" dxfId="615" priority="170">
-      <formula>AND(T16="TRUE",U16="TRUE",W16="TRUE")</formula>
+  <conditionalFormatting sqref="AI18">
+    <cfRule type="expression" dxfId="69" priority="72">
+      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AB17">
-    <cfRule type="expression" dxfId="614" priority="169">
-      <formula>AND(S17="TRUE",U17="TRUE",AB17="TRUE")</formula>
+  <conditionalFormatting sqref="AI23">
+    <cfRule type="expression" dxfId="68" priority="69">
+      <formula>AND(OR(AND(S23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI24">
+    <cfRule type="expression" dxfId="67" priority="57">
+      <formula>AND(OR(AND(R24="TRUE",U24="TRUE",AF24="TRUE"),AG24="TRUE"),OR(Z24="TRUE",AI24="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI27">
+    <cfRule type="expression" dxfId="66" priority="41">
+      <formula>AND(S27="TRUE",V27="TRUE",W27="TRUE",OR(X27="TRUE",AA27="TRUE",AI27="TRUE"))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI31:AI32">
+    <cfRule type="expression" dxfId="65" priority="12">
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AI31="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI32:AI33">
+    <cfRule type="expression" dxfId="64" priority="9">
+      <formula>AND(Q32="TRUE",U32="TRUE",(OR(W32="TRUE",Y32="TRUE")),AC32="TRUE",AI32="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ19">
-    <cfRule type="expression" dxfId="613" priority="164">
+    <cfRule type="expression" dxfId="63" priority="164">
       <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AJ19="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ20">
-    <cfRule type="expression" dxfId="612" priority="161">
+    <cfRule type="expression" dxfId="62" priority="161">
       <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AJ20="FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AG21">
-    <cfRule type="expression" dxfId="611" priority="160">
-      <formula>(AG21="TRUE")</formula>
+  <conditionalFormatting sqref="AJ27">
+    <cfRule type="expression" dxfId="61" priority="42">
+      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O27:O33 O7:O25">
-    <cfRule type="cellIs" dxfId="610" priority="146" operator="equal">
-      <formula>"攻撃可能"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="609" priority="147" operator="equal">
-      <formula>"攻撃困難"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7">
-    <cfRule type="expression" dxfId="608" priority="142">
-      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U7">
-    <cfRule type="expression" dxfId="607" priority="141">
-      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7">
-    <cfRule type="expression" dxfId="606" priority="140">
-      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG7">
-    <cfRule type="expression" dxfId="605" priority="139">
-      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH7">
-    <cfRule type="expression" dxfId="604" priority="138">
-      <formula>AND(OR(AND(R7="TRUE",U7="TRUE"),AG7="TRUE"),OR(Y7="TRUE",AH7="TRUE"))</formula>
+  <conditionalFormatting sqref="AJ31:AJ32">
+    <cfRule type="expression" dxfId="60" priority="10">
+      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AJ31="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK9">
-    <cfRule type="expression" dxfId="603" priority="129">
+    <cfRule type="expression" dxfId="59" priority="129">
       <formula>AND(Q9="TRUE",U9="TRUE",AK9="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL10">
-    <cfRule type="expression" dxfId="602" priority="125">
-      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AL10="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R12">
-    <cfRule type="expression" dxfId="601" priority="124">
-      <formula>AND(P12="TRUE",OR(AND(R12="TRUE",U12="TRUE"),AG12="TRUE"),OR(Y12="TRUE",AH12="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T27">
-    <cfRule type="expression" dxfId="600" priority="116">
-      <formula>AND(T27="TRUE",V27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V27">
-    <cfRule type="expression" dxfId="599" priority="115">
-      <formula>AND(T27="TRUE",V27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W27">
-    <cfRule type="expression" dxfId="598" priority="114">
-      <formula>AND(T27="TRUE",V27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y27">
-    <cfRule type="expression" dxfId="597" priority="113">
-      <formula>AND(T27="TRUE",V27="TRUE",OR(W27="TRUE",Y27="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK28">
-    <cfRule type="expression" dxfId="596" priority="108">
-      <formula>AND(Q28="TRUE",V28="TRUE",AK28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q29">
-    <cfRule type="expression" dxfId="595" priority="107">
-      <formula>AND(Q29="TRUE",U29="TRUE",AC29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U29">
-    <cfRule type="expression" dxfId="594" priority="106">
-      <formula>AND(Q29="TRUE",U29="TRUE",AC29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W29">
-    <cfRule type="expression" dxfId="593" priority="105">
-      <formula>AND(Q29="TRUE",U29="TRUE",AC29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y29">
-    <cfRule type="expression" dxfId="592" priority="104">
-      <formula>AND(Q29="TRUE",U29="TRUE",AC29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC29">
-    <cfRule type="expression" dxfId="591" priority="103">
-      <formula>AND(Q29="TRUE",U29="TRUE",AC29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R30">
-    <cfRule type="expression" dxfId="590" priority="102">
-      <formula>AND(R30="TRUE",V30="TRUE",OR(W30="TRUE",Y30="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V30">
-    <cfRule type="expression" dxfId="589" priority="101">
-      <formula>AND(R30="TRUE",V30="TRUE",OR(W30="TRUE",Y30="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W30">
-    <cfRule type="expression" dxfId="588" priority="100">
-      <formula>AND(R30="TRUE",V30="TRUE",OR(W30="TRUE",Y30="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y30">
-    <cfRule type="expression" dxfId="587" priority="99">
-      <formula>AND(R30="TRUE",V30="TRUE",OR(W30="TRUE",Y30="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI31">
-    <cfRule type="expression" dxfId="586" priority="93">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AI31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB33">
-    <cfRule type="expression" dxfId="585" priority="86">
-      <formula>(AB33="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4">
-    <cfRule type="expression" dxfId="584" priority="80">
-      <formula>$C$4="攻撃困難"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="583" priority="85">
-      <formula>$C$4="攻撃可能"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D4">
-    <cfRule type="expression" dxfId="582" priority="79">
-      <formula>$D$4="攻撃困難"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="581" priority="82">
-      <formula>$D$4="攻撃可能"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E4">
-    <cfRule type="expression" dxfId="580" priority="78">
-      <formula>$E$4="攻撃可能"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="579" priority="83">
-      <formula>$E$4="攻撃困難"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
-    <cfRule type="expression" dxfId="578" priority="77">
-      <formula>$F$4="攻撃可能"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="577" priority="81">
-      <formula>$F$4="攻撃困難"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="expression" dxfId="576" priority="76">
-      <formula>$G$4="攻撃困難"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="575" priority="84">
-      <formula>$G$4="攻撃可能"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL14">
-    <cfRule type="expression" dxfId="574" priority="73">
-      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI18">
-    <cfRule type="expression" dxfId="573" priority="72">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
+  <conditionalFormatting sqref="AK14">
+    <cfRule type="expression" dxfId="58" priority="576">
+      <formula>AND(AG14="TRUE",AK14="TRUE",OR(AM14="TRUE",AS14="TRUE"),AW14="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK19">
-    <cfRule type="expression" dxfId="572" priority="71">
+    <cfRule type="expression" dxfId="57" priority="71">
       <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK20">
-    <cfRule type="expression" dxfId="571" priority="70">
+    <cfRule type="expression" dxfId="56" priority="70">
       <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI23">
-    <cfRule type="expression" dxfId="570" priority="69">
-      <formula>AND(OR(AND(S23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI8">
-    <cfRule type="expression" dxfId="569" priority="68">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
+  <conditionalFormatting sqref="AK28:AK29">
+    <cfRule type="expression" dxfId="55" priority="22">
+      <formula>AND(Q28="TRUE",V28="TRUE",AK28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL9">
-    <cfRule type="expression" dxfId="568" priority="67">
+    <cfRule type="expression" dxfId="54" priority="67">
       <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AM10">
-    <cfRule type="expression" dxfId="567" priority="66">
-      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
+  <conditionalFormatting sqref="AL10">
+    <cfRule type="expression" dxfId="53" priority="125">
+      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AL10="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL28">
-    <cfRule type="expression" dxfId="566" priority="64">
+  <conditionalFormatting sqref="AL14">
+    <cfRule type="expression" dxfId="52" priority="73">
+      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL28:AL29">
+    <cfRule type="expression" dxfId="51" priority="11">
       <formula>AND(Q28="TRUE",V28="TRUE",AL28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AJ31">
-    <cfRule type="expression" dxfId="565" priority="63">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AJ31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI24">
-    <cfRule type="expression" dxfId="564" priority="57">
-      <formula>AND(OR(AND(R24="TRUE",U24="TRUE",AF24="TRUE"),AG24="TRUE"),OR(Z24="TRUE",AI24="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U18">
-    <cfRule type="expression" dxfId="563" priority="566">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U19">
-    <cfRule type="expression" dxfId="562" priority="567">
-      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P14">
-    <cfRule type="expression" dxfId="561" priority="568">
-      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U14">
-    <cfRule type="expression" dxfId="560" priority="569">
-      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U20">
-    <cfRule type="expression" dxfId="559" priority="570">
-      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S18">
-    <cfRule type="expression" dxfId="558" priority="571">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T20">
-    <cfRule type="expression" dxfId="557" priority="572">
-      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U23">
-    <cfRule type="expression" dxfId="556" priority="573">
-      <formula>AND(OR(AND(S23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y14">
-    <cfRule type="expression" dxfId="555" priority="574">
-      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH14">
-    <cfRule type="expression" dxfId="554" priority="575">
-      <formula>AND(P14="TRUE",U14="TRUE",OR(Y14="TRUE",AH14="TRUE"),AL14="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK14">
-    <cfRule type="expression" dxfId="553" priority="576">
-      <formula>AND(AG14="TRUE",AK14="TRUE",OR(AM14="TRUE",AS14="TRUE"),AW14="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W18">
-    <cfRule type="expression" dxfId="552" priority="577">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z18">
-    <cfRule type="expression" dxfId="551" priority="578">
-      <formula>AND(S18="TRUE",U18="TRUE",W18="TRUE",OR(Z18="TRUE",AI18="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W19">
-    <cfRule type="expression" dxfId="550" priority="579">
-      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R19">
-    <cfRule type="expression" dxfId="549" priority="580">
-      <formula>AND(R19="TRUE",U19="TRUE",W19="TRUE",AK19="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W20">
-    <cfRule type="expression" dxfId="548" priority="581">
-      <formula>AND(T20="TRUE",U20="TRUE",W20="TRUE",AK20="FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG23">
-    <cfRule type="expression" dxfId="547" priority="582">
-      <formula>AND(OR(AND(S23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z23">
-    <cfRule type="expression" dxfId="546" priority="583">
-      <formula>AND(OR(AND(S23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q8">
-    <cfRule type="expression" dxfId="545" priority="584">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U8">
-    <cfRule type="expression" dxfId="544" priority="585">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z8">
-    <cfRule type="expression" dxfId="543" priority="586">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE8">
-    <cfRule type="expression" dxfId="542" priority="587">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AE8="TRUE",Z8="TRUE",#REF!="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG8">
-    <cfRule type="expression" dxfId="541" priority="588">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q9">
-    <cfRule type="expression" dxfId="540" priority="589">
-      <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U9">
-    <cfRule type="expression" dxfId="539" priority="590">
-      <formula>AND(Q9="TRUE",U9="TRUE",AL9="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q10">
-    <cfRule type="expression" dxfId="538" priority="591">
+  <conditionalFormatting sqref="AM10">
+    <cfRule type="expression" dxfId="50" priority="66">
       <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U10">
-    <cfRule type="expression" dxfId="537" priority="592">
-      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG10">
-    <cfRule type="expression" dxfId="536" priority="593">
-      <formula>AND(OR(AND(Q10="TRUE",U10="TRUE"),AG10="TRUE"),AM10="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q28">
-    <cfRule type="expression" dxfId="535" priority="599">
-      <formula>AND(Q28="TRUE",V28="TRUE",AL28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V28">
-    <cfRule type="expression" dxfId="534" priority="600">
-      <formula>AND(Q28="TRUE",V28="TRUE",AL28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W28">
-    <cfRule type="expression" dxfId="533" priority="601">
-      <formula>AND(Q28="TRUE",V28="TRUE",AL28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y28">
-    <cfRule type="expression" dxfId="532" priority="602">
-      <formula>AND(Q28="TRUE",V28="TRUE",AL28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q31">
-    <cfRule type="expression" dxfId="531" priority="603">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AJ31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U31">
-    <cfRule type="expression" dxfId="530" priority="604">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AJ31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W31">
-    <cfRule type="expression" dxfId="529" priority="605">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AJ31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y31">
-    <cfRule type="expression" dxfId="528" priority="606">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AJ31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q32">
-    <cfRule type="expression" dxfId="527" priority="607">
-      <formula>AND(Q32="TRUE",U32="TRUE",(OR(W32="TRUE",Y32="TRUE")),AC32="TRUE",AI32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U32">
-    <cfRule type="expression" dxfId="526" priority="608">
-      <formula>AND(Q32="TRUE",U32="TRUE",(OR(W32="TRUE",Y32="TRUE")),AC32="TRUE",AI32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W32">
-    <cfRule type="expression" dxfId="525" priority="609">
-      <formula>AND(Q32="TRUE",U32="TRUE",(OR(W32="TRUE",Y32="TRUE")),AC32="TRUE",AI32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y32">
-    <cfRule type="expression" dxfId="524" priority="610">
-      <formula>AND(Q32="TRUE",U32="TRUE",(OR(W32="TRUE",Y32="TRUE")),AC32="TRUE",AI32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC32">
-    <cfRule type="expression" dxfId="523" priority="611">
-      <formula>AND(Q32="TRUE",U32="TRUE",(OR(W32="TRUE",Y32="TRUE")),AC32="TRUE",AI32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF8">
-    <cfRule type="expression" dxfId="522" priority="612">
-      <formula>AND(OR(AND(Q8="TRUE",U8="TRUE"),AG8="TRUE"),OR(AF8="TRUE",Z8="TRUE",AI8="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE31">
-    <cfRule type="expression" dxfId="521" priority="613">
-      <formula>AND(Q31="TRUE",U31="TRUE",OR(W31="TRUE",Y31="TRUE"),AE31="TRUE",AJ31="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S23">
-    <cfRule type="expression" dxfId="520" priority="614">
-      <formula>AND(OR(AND(S23="TRUE",U23="TRUE"),AG23="TRUE"),OR(Z23="TRUE",AI23="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U24">
-    <cfRule type="expression" dxfId="519" priority="615">
-      <formula>AND(OR(AND(R24="TRUE",U24="TRUE",AF24="TRUE"),AG24="TRUE"),OR(Z24="TRUE",AI24="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG24">
-    <cfRule type="expression" dxfId="518" priority="616">
-      <formula>AND(OR(AND(R24="TRUE",U24="TRUE",AF24="TRUE"),AG24="TRUE"),OR(Z24="TRUE",AI24="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z24">
-    <cfRule type="expression" dxfId="517" priority="617">
-      <formula>AND(OR(AND(R24="TRUE",U24="TRUE",AF24="TRUE"),AG24="TRUE"),OR(Z24="TRUE",AI24="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R24">
-    <cfRule type="expression" dxfId="516" priority="618">
-      <formula>AND(OR(AND(R24="TRUE",U24="TRUE",AF24="TRUE"),AG24="TRUE"),OR(Z24="TRUE",AI24="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AF24">
-    <cfRule type="expression" dxfId="515" priority="619">
-      <formula>AND(OR(AND(R24="TRUE",U24="TRUE",AF24="TRUE"),AG24="TRUE"),OR(Z24="TRUE",AI24="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI32">
-    <cfRule type="expression" dxfId="514" priority="52">
-      <formula>AND(Q32="TRUE",U32="TRUE",(OR(W32="TRUE",Y32="TRUE")),AC32="TRUE",AI32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O34">
-    <cfRule type="cellIs" dxfId="513" priority="49" operator="equal">
-      <formula>"攻撃可能"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="512" priority="50" operator="equal">
-      <formula>"攻撃困難"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB34">
-    <cfRule type="expression" dxfId="511" priority="48">
-      <formula>(AB34="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T28">
-    <cfRule type="expression" dxfId="510" priority="26">
-      <formula>AND(T28="TRUE",V28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V28">
-    <cfRule type="expression" dxfId="509" priority="25">
-      <formula>AND(T28="TRUE",V28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W28">
-    <cfRule type="expression" dxfId="508" priority="24">
-      <formula>AND(T28="TRUE",V28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y28">
-    <cfRule type="expression" dxfId="507" priority="23">
-      <formula>AND(T28="TRUE",V28="TRUE",OR(W28="TRUE",Y28="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK29">
-    <cfRule type="expression" dxfId="506" priority="22">
-      <formula>AND(Q29="TRUE",V29="TRUE",AK29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q30">
-    <cfRule type="expression" dxfId="505" priority="21">
-      <formula>AND(Q30="TRUE",U30="TRUE",AC30="TRUE",OR(W30="TRUE",Y30="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U30">
-    <cfRule type="expression" dxfId="504" priority="20">
-      <formula>AND(Q30="TRUE",U30="TRUE",AC30="TRUE",OR(W30="TRUE",Y30="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W30">
-    <cfRule type="expression" dxfId="503" priority="19">
-      <formula>AND(Q30="TRUE",U30="TRUE",AC30="TRUE",OR(W30="TRUE",Y30="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y30">
-    <cfRule type="expression" dxfId="502" priority="18">
-      <formula>AND(Q30="TRUE",U30="TRUE",AC30="TRUE",OR(W30="TRUE",Y30="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC30">
-    <cfRule type="expression" dxfId="501" priority="17">
-      <formula>AND(Q30="TRUE",U30="TRUE",AC30="TRUE",OR(W30="TRUE",Y30="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R31">
-    <cfRule type="expression" dxfId="500" priority="16">
-      <formula>AND(R31="TRUE",V31="TRUE",OR(W31="TRUE",Y31="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V31">
-    <cfRule type="expression" dxfId="499" priority="15">
-      <formula>AND(R31="TRUE",V31="TRUE",OR(W31="TRUE",Y31="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W31">
-    <cfRule type="expression" dxfId="498" priority="14">
-      <formula>AND(R31="TRUE",V31="TRUE",OR(W31="TRUE",Y31="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y31">
-    <cfRule type="expression" dxfId="497" priority="13">
-      <formula>AND(R31="TRUE",V31="TRUE",OR(W31="TRUE",Y31="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI32">
-    <cfRule type="expression" dxfId="496" priority="12">
-      <formula>AND(Q32="TRUE",U32="TRUE",OR(W32="TRUE",Y32="TRUE"),AE32="TRUE",AI32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL29">
-    <cfRule type="expression" dxfId="495" priority="11">
-      <formula>AND(Q29="TRUE",V29="TRUE",AL29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ32">
-    <cfRule type="expression" dxfId="494" priority="10">
-      <formula>AND(Q32="TRUE",U32="TRUE",OR(W32="TRUE",Y32="TRUE"),AE32="TRUE",AJ32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q29">
-    <cfRule type="expression" dxfId="493" priority="27">
-      <formula>AND(Q29="TRUE",V29="TRUE",AL29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V29">
-    <cfRule type="expression" dxfId="492" priority="28">
-      <formula>AND(Q29="TRUE",V29="TRUE",AL29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W29">
-    <cfRule type="expression" dxfId="491" priority="29">
-      <formula>AND(Q29="TRUE",V29="TRUE",AL29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y29">
-    <cfRule type="expression" dxfId="490" priority="30">
-      <formula>AND(Q29="TRUE",V29="TRUE",AL29="TRUE",OR(W29="TRUE",Y29="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q32">
-    <cfRule type="expression" dxfId="489" priority="31">
-      <formula>AND(Q32="TRUE",U32="TRUE",OR(W32="TRUE",Y32="TRUE"),AE32="TRUE",AJ32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U32">
-    <cfRule type="expression" dxfId="488" priority="32">
-      <formula>AND(Q32="TRUE",U32="TRUE",OR(W32="TRUE",Y32="TRUE"),AE32="TRUE",AJ32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W32">
-    <cfRule type="expression" dxfId="487" priority="33">
-      <formula>AND(Q32="TRUE",U32="TRUE",OR(W32="TRUE",Y32="TRUE"),AE32="TRUE",AJ32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y32">
-    <cfRule type="expression" dxfId="486" priority="34">
-      <formula>AND(Q32="TRUE",U32="TRUE",OR(W32="TRUE",Y32="TRUE"),AE32="TRUE",AJ32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q33">
-    <cfRule type="expression" dxfId="485" priority="35">
-      <formula>AND(Q33="TRUE",U33="TRUE",(OR(W33="TRUE",Y33="TRUE")),AC33="TRUE",AI33="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U33">
-    <cfRule type="expression" dxfId="484" priority="36">
-      <formula>AND(Q33="TRUE",U33="TRUE",(OR(W33="TRUE",Y33="TRUE")),AC33="TRUE",AI33="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W33">
-    <cfRule type="expression" dxfId="483" priority="37">
-      <formula>AND(Q33="TRUE",U33="TRUE",(OR(W33="TRUE",Y33="TRUE")),AC33="TRUE",AI33="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y33">
-    <cfRule type="expression" dxfId="482" priority="38">
-      <formula>AND(Q33="TRUE",U33="TRUE",(OR(W33="TRUE",Y33="TRUE")),AC33="TRUE",AI33="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC33">
-    <cfRule type="expression" dxfId="481" priority="39">
-      <formula>AND(Q33="TRUE",U33="TRUE",(OR(W33="TRUE",Y33="TRUE")),AC33="TRUE",AI33="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE32">
-    <cfRule type="expression" dxfId="480" priority="40">
-      <formula>AND(Q32="TRUE",U32="TRUE",OR(W32="TRUE",Y32="TRUE"),AE32="TRUE",AJ32="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI33">
-    <cfRule type="expression" dxfId="479" priority="9">
-      <formula>AND(Q33="TRUE",U33="TRUE",(OR(W33="TRUE",Y33="TRUE")),AC33="TRUE",AI33="TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI27">
-    <cfRule type="expression" dxfId="478" priority="41">
-      <formula>AND(S27="TRUE",V27="TRUE",W27="TRUE",OR(X27="TRUE",AA27="TRUE",AI27="TRUE"))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ27">
-    <cfRule type="expression" dxfId="477" priority="42">
-      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S27">
-    <cfRule type="expression" dxfId="476" priority="43">
-      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V27">
-    <cfRule type="expression" dxfId="475" priority="44">
-      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W27">
-    <cfRule type="expression" dxfId="474" priority="45">
-      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X27">
-    <cfRule type="expression" dxfId="473" priority="46">
-      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AA27">
-    <cfRule type="expression" dxfId="472" priority="47">
-      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y27">
-    <cfRule type="expression" dxfId="471" priority="8">
-      <formula>AND(S27="TRUE",V27="TRUE",(OR(W27="TRUE",Y27="TRUE")),(OR(X27="TRUE",AA27="TRUE",AJ27="TRUE")))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O26">
-    <cfRule type="cellIs" dxfId="470" priority="6" operator="equal">
-      <formula>"攻撃可能"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="469" priority="7" operator="equal">
-      <formula>"攻撃困難"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AB25">
-    <cfRule type="expression" dxfId="467" priority="1">
-      <formula>(AB25="TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40587,7 +36821,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{549CB97E-C943-4CCC-9544-07840BB3F0B3}">
-  <dimension ref="A4:F57"/>
+  <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -40600,6 +36834,11 @@
     <col min="6" max="6" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="F1" t="s">
+        <v>515</v>
+      </c>
+    </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="B4" s="80"/>
     </row>
@@ -40624,13 +36863,13 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="146" t="s">
+      <c r="B8" s="144" t="s">
         <v>43</v>
       </c>
       <c r="C8" s="121" t="s">
         <v>263</v>
       </c>
-      <c r="D8" s="144" t="str">
+      <c r="D8" s="146" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE44="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
@@ -40643,9 +36882,9 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B9" s="147"/>
+      <c r="B9" s="145"/>
       <c r="C9" s="123"/>
-      <c r="D9" s="145"/>
+      <c r="D9" s="147"/>
       <c r="E9" s="3" t="s">
         <v>265</v>
       </c>
@@ -40663,13 +36902,13 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C11" s="144" t="s">
         <v>268</v>
       </c>
-      <c r="D11" s="144" t="str">
+      <c r="D11" s="146" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE45="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
@@ -40682,9 +36921,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="133"/>
-      <c r="C12" s="147"/>
-      <c r="D12" s="145"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="145"/>
+      <c r="D12" s="147"/>
       <c r="E12" s="3" t="s">
         <v>270</v>
       </c>
@@ -40694,13 +36933,13 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B13" s="137" t="s">
+      <c r="B13" s="131" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="146" t="s">
+      <c r="C13" s="144" t="s">
         <v>271</v>
       </c>
-      <c r="D13" s="144" t="str">
+      <c r="D13" s="146" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE46="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
@@ -40713,9 +36952,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B14" s="133"/>
-      <c r="C14" s="147"/>
-      <c r="D14" s="145"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="145"/>
+      <c r="D14" s="147"/>
       <c r="E14" s="3" t="s">
         <v>273</v>
       </c>
@@ -40725,13 +36964,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B15" s="137" t="s">
+      <c r="B15" s="131" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="146" t="s">
+      <c r="C15" s="144" t="s">
         <v>274</v>
       </c>
-      <c r="D15" s="144" t="str">
+      <c r="D15" s="146" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE47="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
@@ -40744,9 +36983,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B16" s="133"/>
-      <c r="C16" s="147"/>
-      <c r="D16" s="145"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="145"/>
+      <c r="D16" s="147"/>
       <c r="E16" s="3" t="s">
         <v>276</v>
       </c>
@@ -40756,13 +36995,13 @@
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B17" s="137" t="s">
+      <c r="B17" s="131" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="146" t="s">
+      <c r="C17" s="144" t="s">
         <v>277</v>
       </c>
-      <c r="D17" s="144" t="str">
+      <c r="D17" s="146" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE48="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
@@ -40775,9 +37014,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B18" s="133"/>
-      <c r="C18" s="147"/>
-      <c r="D18" s="145"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="145"/>
+      <c r="D18" s="147"/>
       <c r="E18" s="3" t="s">
         <v>279</v>
       </c>
@@ -40795,13 +37034,13 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
+      <c r="B21" s="131" t="s">
         <v>63</v>
       </c>
       <c r="C21" s="121" t="s">
         <v>282</v>
       </c>
-      <c r="D21" s="144" t="str">
+      <c r="D21" s="146" t="str">
         <f>IF('Ⅳ. 総合判定結果'!AE49="TRUE", "該当", "非該当")</f>
         <v>非該当</v>
       </c>
@@ -40814,9 +37053,9 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="133"/>
+      <c r="B22" s="128"/>
       <c r="C22" s="123"/>
-      <c r="D22" s="145"/>
+      <c r="D22" s="147"/>
       <c r="E22" s="3" t="s">
         <v>284</v>
       </c>
@@ -41183,6 +37422,15 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C13:C14"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B21:B22"/>
@@ -41192,265 +37440,256 @@
     <mergeCell ref="D17:D18"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C13:C14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="B8:D9">
-    <cfRule type="expression" dxfId="676" priority="57">
+    <cfRule type="expression" dxfId="49" priority="57">
       <formula>$D$8="該当"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B11:D12">
+    <cfRule type="expression" dxfId="48" priority="58">
+      <formula>$D$11="該当"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B13:D14">
-    <cfRule type="expression" dxfId="675" priority="59">
+    <cfRule type="expression" dxfId="47" priority="59">
       <formula>$D$13="該当"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:D12">
-    <cfRule type="expression" dxfId="674" priority="58">
-      <formula>$D$11="該当"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B15:D16">
-    <cfRule type="expression" dxfId="673" priority="56">
+    <cfRule type="expression" dxfId="46" priority="56">
       <formula>$D$15="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B17:D18">
-    <cfRule type="expression" dxfId="672" priority="55">
+    <cfRule type="expression" dxfId="45" priority="55">
       <formula>$D$17="該当"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B21:D21">
+    <cfRule type="expression" dxfId="44" priority="4">
+      <formula>$D$21="該当"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="B23:D23">
-    <cfRule type="expression" dxfId="671" priority="53">
+    <cfRule type="expression" dxfId="43" priority="53">
       <formula>$D$23="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:D26">
-    <cfRule type="expression" dxfId="670" priority="52">
+    <cfRule type="expression" dxfId="42" priority="52">
       <formula>$D$26="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27:D27">
-    <cfRule type="expression" dxfId="669" priority="51">
+    <cfRule type="expression" dxfId="41" priority="51">
       <formula>$D$27="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:D28">
-    <cfRule type="expression" dxfId="668" priority="50">
+    <cfRule type="expression" dxfId="40" priority="50">
       <formula>$D$28="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29:D29">
-    <cfRule type="expression" dxfId="667" priority="49">
+    <cfRule type="expression" dxfId="39" priority="49">
       <formula>$D$29="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30:D30">
-    <cfRule type="expression" dxfId="666" priority="48">
+    <cfRule type="expression" dxfId="38" priority="48">
       <formula>$D$30="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31:D31">
-    <cfRule type="expression" dxfId="665" priority="47">
+    <cfRule type="expression" dxfId="37" priority="47">
       <formula>$D$31="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:D32">
-    <cfRule type="expression" dxfId="664" priority="46">
+    <cfRule type="expression" dxfId="36" priority="46">
       <formula>$D$32="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35:D35">
-    <cfRule type="expression" dxfId="663" priority="45">
+    <cfRule type="expression" dxfId="35" priority="45">
       <formula>$D$35="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38:D38">
-    <cfRule type="expression" dxfId="662" priority="43">
+    <cfRule type="expression" dxfId="34" priority="43">
       <formula>$D$38="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39:D39">
-    <cfRule type="expression" dxfId="661" priority="42">
+    <cfRule type="expression" dxfId="33" priority="42">
       <formula>$D$39="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:D40">
-    <cfRule type="expression" dxfId="660" priority="41">
+    <cfRule type="expression" dxfId="32" priority="41">
       <formula>$D$40="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B43:D43">
-    <cfRule type="expression" dxfId="659" priority="40">
+    <cfRule type="expression" dxfId="31" priority="40">
       <formula>$D$43="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B44:D44">
-    <cfRule type="expression" dxfId="658" priority="39">
+    <cfRule type="expression" dxfId="30" priority="39">
       <formula>$D$44="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B45:D45">
-    <cfRule type="expression" dxfId="657" priority="38">
+    <cfRule type="expression" dxfId="29" priority="38">
       <formula>$D$45="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B48:D48">
-    <cfRule type="expression" dxfId="656" priority="37">
+    <cfRule type="expression" dxfId="28" priority="37">
       <formula>$D$48="該当"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E8:F8">
-    <cfRule type="expression" dxfId="655" priority="36">
+    <cfRule type="expression" dxfId="27" priority="36">
       <formula>$F$8="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:F9">
-    <cfRule type="expression" dxfId="654" priority="35">
+    <cfRule type="expression" dxfId="26" priority="35">
       <formula>$F$9="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:F11">
-    <cfRule type="expression" dxfId="653" priority="34">
+    <cfRule type="expression" dxfId="25" priority="34">
       <formula>$F$11="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12:F12">
-    <cfRule type="expression" dxfId="652" priority="33">
+    <cfRule type="expression" dxfId="24" priority="33">
       <formula>$F$12="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13:F13">
-    <cfRule type="expression" dxfId="651" priority="32">
+    <cfRule type="expression" dxfId="23" priority="32">
       <formula>$F$13="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E14:F14">
-    <cfRule type="expression" dxfId="650" priority="31">
+    <cfRule type="expression" dxfId="22" priority="31">
       <formula>$F$14="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15:F15">
-    <cfRule type="expression" dxfId="649" priority="30">
+    <cfRule type="expression" dxfId="21" priority="30">
       <formula>$F$15="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:F16">
-    <cfRule type="expression" dxfId="648" priority="29">
+    <cfRule type="expression" dxfId="20" priority="29">
       <formula>$F$16="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E17:F17">
-    <cfRule type="expression" dxfId="647" priority="28">
+    <cfRule type="expression" dxfId="19" priority="28">
       <formula>$F$17="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E18:F18">
-    <cfRule type="expression" dxfId="646" priority="27">
+    <cfRule type="expression" dxfId="18" priority="27">
       <formula>$F$18="YES"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E21:F21">
+    <cfRule type="expression" dxfId="17" priority="3">
+      <formula>$F$21="YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="E22:F22">
-    <cfRule type="expression" dxfId="645" priority="26">
+    <cfRule type="expression" dxfId="16" priority="26">
       <formula>$F$22="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E23:F23">
-    <cfRule type="expression" dxfId="644" priority="25">
+    <cfRule type="expression" dxfId="15" priority="25">
       <formula>$F$23="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26:F26">
-    <cfRule type="expression" dxfId="643" priority="24">
+    <cfRule type="expression" dxfId="14" priority="24">
       <formula>$F$26="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E27:F27">
-    <cfRule type="expression" dxfId="642" priority="23">
+    <cfRule type="expression" dxfId="13" priority="23">
       <formula>$F$27="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:F28">
-    <cfRule type="expression" dxfId="641" priority="22">
+    <cfRule type="expression" dxfId="12" priority="22">
       <formula>$F$28="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29:F29">
-    <cfRule type="expression" dxfId="640" priority="21">
+    <cfRule type="expression" dxfId="11" priority="21">
       <formula>$F$29="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30:F30">
-    <cfRule type="expression" dxfId="639" priority="20">
+    <cfRule type="expression" dxfId="10" priority="20">
       <formula>$F$30="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31:F31">
-    <cfRule type="expression" dxfId="638" priority="19">
+    <cfRule type="expression" dxfId="9" priority="19">
       <formula>$F$31="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32:F32">
-    <cfRule type="expression" dxfId="637" priority="18">
+    <cfRule type="expression" dxfId="8" priority="18">
       <formula>$F$32="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35:F35">
-    <cfRule type="expression" dxfId="636" priority="17">
+    <cfRule type="expression" dxfId="7" priority="17">
       <formula>$F$35="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38:F38">
-    <cfRule type="expression" dxfId="635" priority="16">
+    <cfRule type="expression" dxfId="6" priority="16">
       <formula>$F$38="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39:F39">
-    <cfRule type="expression" dxfId="634" priority="15">
+    <cfRule type="expression" dxfId="5" priority="15">
       <formula>$F$39="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40:F40">
-    <cfRule type="expression" dxfId="633" priority="14">
+    <cfRule type="expression" dxfId="4" priority="14">
       <formula>$F$40="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E43:F43">
-    <cfRule type="expression" dxfId="632" priority="13">
+    <cfRule type="expression" dxfId="3" priority="13">
       <formula>$F$43="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E44:F44">
-    <cfRule type="expression" dxfId="631" priority="12">
+    <cfRule type="expression" dxfId="2" priority="12">
       <formula>$F$44="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E45:F45">
-    <cfRule type="expression" dxfId="630" priority="11">
+    <cfRule type="expression" dxfId="1" priority="11">
       <formula>$F$45="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E48:F48">
-    <cfRule type="expression" dxfId="629" priority="10">
+    <cfRule type="expression" dxfId="0" priority="10">
       <formula>$F$48="YES"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B21:D21">
-    <cfRule type="expression" dxfId="628" priority="4">
-      <formula>$D$21="該当"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E21:F21">
-    <cfRule type="expression" dxfId="627" priority="3">
-      <formula>$F$21="YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41487,6 +37726,9 @@
       </c>
       <c r="E1" t="s">
         <v>325</v>
+      </c>
+      <c r="N1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -42350,6 +38592,9 @@
       <c r="D1" t="s">
         <v>350</v>
       </c>
+      <c r="N1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" t="str">
@@ -43013,6 +39258,9 @@
       <c r="G1" t="s">
         <v>365</v>
       </c>
+      <c r="N1" t="s">
+        <v>515</v>
+      </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B2" t="str">
@@ -43802,18 +40050,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="F4:G5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="F16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="F28:G29"/>
+    <mergeCell ref="H28:H29"/>
     <mergeCell ref="F75:G76"/>
     <mergeCell ref="H75:H76"/>
     <mergeCell ref="F58:G59"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="F46:G47"/>
     <mergeCell ref="H46:H47"/>
-    <mergeCell ref="F4:G5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="F16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="F28:G29"/>
-    <mergeCell ref="H28:H29"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -43846,7 +40094,10 @@
         <v>496</v>
       </c>
       <c r="D1" t="s">
-        <v>513</v>
+        <v>512</v>
+      </c>
+      <c r="N1" t="s">
+        <v>515</v>
       </c>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.4">
@@ -44486,7 +40737,7 @@
     </row>
     <row r="50" spans="6:8" x14ac:dyDescent="0.4">
       <c r="F50" s="148" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G50" s="149"/>
       <c r="H50" s="152" t="str">
@@ -44534,9 +40785,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -44757,19 +41011,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BAF797F-BBAB-4E83-A10E-06794A3228FB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DDC6F79-1B2D-4025-AD7D-7E0CCE89759B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -44794,9 +41044,10 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DDC6F79-1B2D-4025-AD7D-7E0CCE89759B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BAF797F-BBAB-4E83-A10E-06794A3228FB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>